--- a/biology/Botanique/Piedirosso/Piedirosso.xlsx
+++ b/biology/Botanique/Piedirosso/Piedirosso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le piedirosso est un cépage italien de raisins rouges.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il provient du sud de l’Italie.
 Il est classé cépage d'appoint en DOC Campi Flegrei, Capri, Ischia et Vesuvio. Il est classé recommandé dans la région Campanie dans les provinces d'Avellino, Benevento, Caserte, Naples, Salerne de et autorisé en province de Bari. En 1998, elle couvrait 1.340 ha.
@@ -547,7 +561,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau duveteux, vert clair.
 Jeunes feuilles aranéeuses, vert clair avec des reflets violacés sur les bords.
@@ -579,7 +595,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque : 30 jours après le chasselas.
 </t>
@@ -610,7 +628,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies sont de taille moyenne à grande. La grappe est légèrement conique et ailée. Le cépage est de bonne vigueur préférant une taille longue.
 Il donne des vins rouge rubis intense. Les vins ayant du corps sont alcooliques et légèrement tannique.
@@ -642,7 +662,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le piedirosso est connu sous les noms de palombina, palombina nera, palumbina nera, palombo, perepalummo, pererusso, piede colombo (« pied de pigeon »), piede di colombo, piedepalumbo, streppa verde et strepparossa.
 </t>
